--- a/elesa 19-20/Elesa_Award_Points_Table.xlsx
+++ b/elesa 19-20/Elesa_Award_Points_Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Aboli Kulkarni</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Shraddha Tanaji Banne</t>
+  </si>
+  <si>
+    <t>Yogesh Polawar</t>
+  </si>
+  <si>
+    <t>Joint Finance Director</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -333,14 +339,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,19 +646,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -679,7 +688,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
@@ -690,7 +699,7 @@
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -699,7 +708,7 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -708,7 +717,7 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
@@ -719,7 +728,7 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -728,7 +737,7 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -737,7 +746,7 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1"/>
@@ -748,7 +757,7 @@
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -757,7 +766,7 @@
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -766,7 +775,7 @@
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -775,7 +784,7 @@
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1"/>
@@ -786,7 +795,7 @@
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -795,7 +804,7 @@
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -804,7 +813,7 @@
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
@@ -815,7 +824,7 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -824,7 +833,7 @@
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -853,7 +862,7 @@
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1"/>
@@ -864,7 +873,7 @@
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -873,25 +882,25 @@
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -921,7 +930,7 @@
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="1"/>
@@ -932,7 +941,7 @@
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -941,7 +950,7 @@
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -950,7 +959,7 @@
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="1"/>
@@ -961,7 +970,7 @@
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -970,7 +979,7 @@
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -979,7 +988,7 @@
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="1"/>
@@ -990,7 +999,7 @@
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -999,7 +1008,7 @@
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1008,7 +1017,7 @@
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1017,7 +1026,7 @@
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="1"/>
@@ -1028,7 +1037,7 @@
       <c r="A42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1037,7 +1046,7 @@
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="1"/>
@@ -1048,7 +1057,7 @@
       <c r="A44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1057,7 +1066,7 @@
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="1"/>
@@ -1068,7 +1077,7 @@
       <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1077,13 +1086,27 @@
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
@@ -1094,9 +1117,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
